--- a/DysonSphere/excels/formula.xlsx
+++ b/DysonSphere/excels/formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nodejs\nodeapp\DysonSphere\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46513B11-1259-4432-B5C8-8B48D28A31D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD00795-2F3F-4701-A435-D5B45AD96F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="-45" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>公式名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,151 @@
   <si>
     <t>电动机</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矿</t>
+  </si>
+  <si>
+    <t>硅石</t>
+  </si>
+  <si>
+    <t>钛块</t>
+  </si>
+  <si>
+    <t>钛块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤矿</t>
+  </si>
+  <si>
+    <t>原油</t>
+  </si>
+  <si>
+    <t>氢</t>
+  </si>
+  <si>
+    <t>晶格硅</t>
+  </si>
+  <si>
+    <t>钛合金</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>钢材</t>
+  </si>
+  <si>
+    <t>金刚石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石1</t>
+  </si>
+  <si>
+    <t>金刚石1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石2</t>
+  </si>
+  <si>
+    <t>金刚石2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸</t>
+  </si>
+  <si>
+    <t>金伯利矿石</t>
+  </si>
+  <si>
+    <t>棱镜</t>
+  </si>
+  <si>
+    <t>有机晶体</t>
+  </si>
+  <si>
+    <t>钛晶石</t>
+  </si>
+  <si>
+    <t>推进器</t>
+  </si>
+  <si>
+    <t>电浆激发器</t>
+  </si>
+  <si>
+    <t>超级磁场环</t>
+  </si>
+  <si>
+    <t>粒子宽带</t>
+  </si>
+  <si>
+    <t>处理器</t>
+  </si>
+  <si>
+    <t>粒子容器</t>
+  </si>
+  <si>
+    <t>太阳帆</t>
+  </si>
+  <si>
+    <t>光子合并器</t>
+  </si>
+  <si>
+    <t>微晶元件</t>
+  </si>
+  <si>
+    <t>电力感应塔</t>
+  </si>
+  <si>
+    <t>无线输电塔</t>
+  </si>
+  <si>
+    <t>传送带</t>
+  </si>
+  <si>
+    <t>高速传送带</t>
+  </si>
+  <si>
+    <t>极速传送带</t>
+  </si>
+  <si>
+    <t>分拣机</t>
+  </si>
+  <si>
+    <t>制造台MK.1</t>
+  </si>
+  <si>
+    <t>电弧熔炉</t>
+  </si>
+  <si>
+    <t>液氢燃料棒</t>
+  </si>
+  <si>
+    <t>氘核燃料棒</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>石墨烯</t>
+  </si>
+  <si>
+    <t>碳纳米管</t>
+  </si>
+  <si>
+    <t>电磁矩阵</t>
+  </si>
+  <si>
+    <t>能量矩阵</t>
+  </si>
+  <si>
+    <t>结构矩阵</t>
+  </si>
+  <si>
+    <t>信息矩阵</t>
   </si>
 </sst>
 </file>
@@ -240,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,6 +427,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,14 +713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,7 +817,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -672,10 +828,10 @@
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -689,7 +845,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -700,10 +856,10 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -711,13 +867,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2001</v>
+        <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -725,72 +881,674 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2002</v>
+        <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2003</v>
+        <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2004</v>
+        <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2005</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
+        <v>1012</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2006</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2007</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2009</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2011</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2020</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2026</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2027</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2028</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2029</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2030</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3002</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4001</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4002</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4003</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4004</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4005</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4006</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5001</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5002</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5003</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5004</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -802,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0989D816-2FD2-4F7C-AD95-9324D2008806}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,60 +1716,53 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="A8" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="A9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
+        <v>1004</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1019,281 +1770,764 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1006</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>1006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1014</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2004</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C15">
+      <c r="C39">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>2004</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C16">
+      <c r="C40">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>2004</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="C41">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2004</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="C18">
+      <c r="C42">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>2005</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C43" s="3">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>2005</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C44" s="3">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>2005</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C45" s="3">
         <v>35</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>2006</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C22">
+      <c r="C46">
         <v>9</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>2006</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="C23">
+      <c r="C47">
         <v>10</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2006</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="C24">
+      <c r="C48">
         <v>36</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>3001</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
         <v>2</v>
       </c>
     </row>
